--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5764697.37308176</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162455</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30.86155971440646</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>38.12502610536669</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>68.31015748716329</v>
       </c>
     </row>
     <row r="7">
@@ -1095,22 +1095,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.077808277862227</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>28.88091821707973</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>89.98138655216529</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>197.693288692237</v>
       </c>
     </row>
     <row r="22">
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.4429157019655</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,67 +2478,67 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>9.766753173572431</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.5129972853334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>178.6958490491743</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>232.3303155802433</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>209.1160484088342</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.9333552767668</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>79.17180122719401</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>32.70321845405519</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>131.9507376187037</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>87.37278572049297</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>895.0569964326935</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.9507376187037</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="C9" t="n">
-        <v>131.9507376187037</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>131.9507376187037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>783.4905096705352</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>77.28117035226589</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>32.70321845405519</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F12" t="n">
-        <v>131.9507376187037</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G12" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>104.756466833843</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>104.756466833843</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L15" t="n">
-        <v>45.45613755060546</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>485.167420504237</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W20" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X20" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>655.1273272985679</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>655.1273272985679</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>655.1273272985679</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>508.2152912359765</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
         <v>31.35113235729608</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>176.4352409821462</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6423,7 +6423,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>508.9694238887622</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>508.9694238887622</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X33" t="n">
-        <v>508.9694238887622</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y33" t="n">
-        <v>508.9694238887622</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>569.2254314512334</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F35" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G35" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7046,22 +7046,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7122,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>700.6811714053606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7259,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>125.0774898247174</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X39" t="n">
-        <v>125.0774898247174</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.0774898247174</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
         <v>262.7299197543128</v>
@@ -7444,10 +7444,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
         <v>710.516763498309</v>
@@ -7456,7 +7456,7 @@
         <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.4044113554191</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,16 +7496,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V42" t="n">
-        <v>752.8288237845411</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W42" t="n">
-        <v>509.380047140441</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X42" t="n">
-        <v>509.380047140441</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>301.6197483754871</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.4461484402802</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>884.0856391195312</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>884.0856391195312</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>884.0856391195312</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>640.636862475431</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>640.636862475431</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>640.636862475431</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>135.6716239354609</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>74.11041813112978</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>137.3725382901411</v>
       </c>
     </row>
     <row r="7">
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>198.6048874994421</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4647346907568</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>103.2198659311269</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7607135436709</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>47.71142943728564</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>67.66369390323565</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23989,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>2.212053182593479</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>7.989407085067313</v>
       </c>
     </row>
     <row r="22">
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>12.2021647534354</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>181.5942737834321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>147.8783272818285</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24730,16 +24730,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.16969849197096</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>252.344814527994</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>161.6912218268184</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>21.46887964564732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>150.4035260832373</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,13 +25171,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>277.0585344134748</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>98.1469632631722</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>67.9701157409561</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>141.8066124595895</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25724,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>74.94203846847478</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>23.68453874059111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>50.77514371154891</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25997,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>120.9929274676276</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770131</v>
+        <v>498541.5625390696</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26438,13 +26438,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26453,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245947</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866138</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.9794390883</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866138</v>
+        <v>55969.57943908832</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865641</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913785</v>
+        <v>-7090.363160017949</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908826</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310983</v>
+        <v>361972.0568565575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.37308176</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.86155971440646</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.31015748716329</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.077808277862227</v>
+        <v>38.12502610536669</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F17" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>89.98138655216529</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>149.2443446493089</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2180,7 +2180,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.06656334990315</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.693288692237</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>218.2545356023572</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>116.3751148309236</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2851,10 +2851,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>116.6930783966232</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>97.61931349302616</v>
       </c>
     </row>
     <row r="34">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>232.3303155802433</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>63.9067613594508</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>80.38776757101658</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>109.8883707013301</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>125.2226902263468</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>143.4027167768713</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>79.17180122719401</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4143,61 +4143,61 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>51.20856840381305</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.20856840381305</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726.8416594126254</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>726.8416594126254</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y6" t="n">
-        <v>895.0569964326935</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>615.2751726504672</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C9" t="n">
-        <v>440.8221433693402</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D9" t="n">
-        <v>291.8877337080889</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X9" t="n">
-        <v>790.6398109613051</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y9" t="n">
-        <v>783.4905096705352</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.38115216564972</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U14" t="n">
-        <v>517.4848137278872</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.5408093233744</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60123993063803</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>588.4532163200711</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>353.3011080883284</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>353.3011080883284</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>353.3011080883284</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.5408093233744</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>284.6244618379714</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C18" t="n">
-        <v>110.1714325568443</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D18" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>492.3847606029253</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X18" t="n">
-        <v>492.3847606029253</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y18" t="n">
-        <v>284.6244618379714</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520.918188268317</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C21" t="n">
-        <v>520.918188268317</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D21" t="n">
-        <v>520.918188268317</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>833.5274610636197</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>833.5274610636197</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>833.5274610636197</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>833.5274610636197</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>833.5274610636197</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="Y21" t="n">
-        <v>520.918188268317</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6110,10 +6110,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="28">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>40.6788758079141</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6575,19 +6575,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>470.5814199598456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.40970589960398</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X33" t="n">
-        <v>238.1700046645579</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y33" t="n">
-        <v>30.40970589960398</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C36" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="37">
@@ -7119,7 +7119,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.810259228364</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C38" t="n">
-        <v>251.810259228364</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>251.810259228364</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="W39" t="n">
-        <v>187.4964801302808</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4964801302808</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>781.6878608402728</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>837.5695896254374</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>609.3459713618265</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>609.3459713618265</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7681,19 +7681,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>640.636862475431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>884.0856391195312</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>884.0856391195312</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>884.0856391195312</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>640.636862475431</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>640.636862475431</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>640.636862475431</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.6716239354609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.3725382901411</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22995,13 +22995,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23029,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23117,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.6048874994421</v>
+        <v>167.5576696719377</v>
       </c>
     </row>
     <row r="10">
@@ -23190,10 +23190,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,10 +23235,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>108.2910995245859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23545,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>47.71142943728564</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23712,13 +23712,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F17" t="n">
-        <v>304.5378186490225</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>67.66369390323565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>56.52864055416862</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>142.6166077539347</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.989407085067313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>130.9864331150558</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>20.96840233228708</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>385.6922903709871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>55.92513116551942</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>109.2483036843516</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>161.6912218268184</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>108.0633822842782</v>
       </c>
     </row>
     <row r="34">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>150.4035260832373</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>108.8017376288649</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25359,10 +25359,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>91.29540353282124</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>141.8066124595895</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>74.94203846847478</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>62.27997900043303</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>120.9929274676276</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390696</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65754.15294315932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65754.15294315934</v>
+      </c>
+      <c r="G2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
@@ -26337,25 +26337,25 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="K2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26438,7 +26438,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245947</v>
+        <v>7172.021946512435</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908827</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.9794390883</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908827</v>
+        <v>55589.32795075666</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908832</v>
+        <v>55589.32795075668</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908829</v>
+        <v>13003.3540966524</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017949</v>
+        <v>55418.8708871338</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.57943908829</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.57943908826</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908827</v>
+        <v>19585.91077966093</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712472</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
